--- a/JPetStore_project/data/pet-store-data.xlsx
+++ b/JPetStore_project/data/pet-store-data.xlsx
@@ -2204,7 +2204,7 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="n">
-        <v>18341.0</v>
+        <v>14183.0</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
@@ -2242,7 +2242,7 @@
     </row>
     <row r="3" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="n">
-        <v>16944.0</v>
+        <v>11026.0</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>24</v>
@@ -2280,7 +2280,7 @@
     </row>
     <row r="4" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="n">
-        <v>14896.0</v>
+        <v>11324.0</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>33</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="5" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="n">
-        <v>17207.0</v>
+        <v>11000.0</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>42</v>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="n">
-        <v>18665.0</v>
+        <v>12503.0</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>51</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="7" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="n">
-        <v>14318.0</v>
+        <v>18259.0</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>60</v>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="n">
-        <v>12736.0</v>
+        <v>15783.0</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>69</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="9" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="n">
-        <v>14646.0</v>
+        <v>17579.0</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>78</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="10" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="n">
-        <v>13660.0</v>
+        <v>12572.0</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>87</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="11" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="n">
-        <v>16460.0</v>
+        <v>19389.0</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>96</v>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="12" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="n">
-        <v>19082.0</v>
+        <v>15441.0</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>105</v>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="13" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="n">
-        <v>12948.0</v>
+        <v>15894.0</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>114</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="n">
-        <v>16205.0</v>
+        <v>14105.0</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>123</v>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="15" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="n">
-        <v>15683.0</v>
+        <v>15791.0</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>131</v>
@@ -2736,7 +2736,7 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="n">
-        <v>19116.0</v>
+        <v>13886.0</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>139</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="17" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="n">
-        <v>18628.0</v>
+        <v>16463.0</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>148</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="n">
-        <v>18748.0</v>
+        <v>19886.0</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>156</v>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="n">
-        <v>19039.0</v>
+        <v>17227.0</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>165</v>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="n">
-        <v>18892.0</v>
+        <v>17320.0</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>173</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="n">
-        <v>16331.0</v>
+        <v>10192.0</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>181</v>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="22" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="n">
-        <v>14756.0</v>
+        <v>15224.0</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>190</v>
@@ -3002,7 +3002,7 @@
     </row>
     <row r="23" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="n">
-        <v>19725.0</v>
+        <v>15866.0</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>199</v>
@@ -3040,7 +3040,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="n">
-        <v>12995.0</v>
+        <v>12560.0</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>207</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="25" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="n">
-        <v>12991.0</v>
+        <v>15891.0</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>216</v>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="n">
-        <v>15295.0</v>
+        <v>16149.0</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>225</v>
@@ -3154,7 +3154,7 @@
     </row>
     <row r="27" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="n">
-        <v>11746.0</v>
+        <v>17824.0</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>234</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="28" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="n">
-        <v>10162.0</v>
+        <v>19999.0</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>243</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="29" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="n">
-        <v>11433.0</v>
+        <v>10521.0</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>251</v>
@@ -3268,7 +3268,7 @@
     </row>
     <row r="30" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="n">
-        <v>16814.0</v>
+        <v>11044.0</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>259</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="31" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="n">
-        <v>14815.0</v>
+        <v>11701.0</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>268</v>
@@ -3344,7 +3344,7 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="n">
-        <v>10280.0</v>
+        <v>19579.0</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>276</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="33" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="n">
-        <v>17616.0</v>
+        <v>19422.0</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>284</v>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="34" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="n">
-        <v>14482.0</v>
+        <v>17122.0</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>292</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="35" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="n">
-        <v>15619.0</v>
+        <v>19174.0</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>301</v>
@@ -3496,7 +3496,7 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="n">
-        <v>17314.0</v>
+        <v>12226.0</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>310</v>
@@ -3534,7 +3534,7 @@
     </row>
     <row r="37" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="n">
-        <v>11702.0</v>
+        <v>17812.0</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>319</v>
@@ -3572,7 +3572,7 @@
     </row>
     <row r="38" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="n">
-        <v>16882.0</v>
+        <v>14291.0</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>327</v>
@@ -3610,7 +3610,7 @@
     </row>
     <row r="39" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="n">
-        <v>17377.0</v>
+        <v>15219.0</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>336</v>
@@ -3648,7 +3648,7 @@
     </row>
     <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="n">
-        <v>19851.0</v>
+        <v>15991.0</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>344</v>
@@ -3686,7 +3686,7 @@
     </row>
     <row r="41" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="n">
-        <v>14837.0</v>
+        <v>10637.0</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>352</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="42" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="n">
-        <v>13280.0</v>
+        <v>19364.0</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>360</v>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="n">
-        <v>13741.0</v>
+        <v>17694.0</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>368</v>
@@ -3800,7 +3800,7 @@
     </row>
     <row r="44" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="n">
-        <v>14177.0</v>
+        <v>14081.0</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>377</v>
@@ -3838,7 +3838,7 @@
     </row>
     <row r="45" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="n">
-        <v>11013.0</v>
+        <v>15047.0</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>386</v>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="n">
-        <v>15453.0</v>
+        <v>16149.0</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>394</v>
@@ -3914,7 +3914,7 @@
     </row>
     <row r="47" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="n">
-        <v>18040.0</v>
+        <v>10353.0</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>402</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="n">
-        <v>17463.0</v>
+        <v>13297.0</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>410</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="49" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="n">
-        <v>11908.0</v>
+        <v>11677.0</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>418</v>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="50" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="n">
-        <v>16465.0</v>
+        <v>16404.0</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>427</v>
@@ -4066,7 +4066,7 @@
     </row>
     <row r="51" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="n">
-        <v>14064.0</v>
+        <v>14279.0</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>436</v>
